--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_28_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2101.299068771752</v>
+        <v>418158.5146855791</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101.299068771752</v>
+        <v>418158.5146855791</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>85431.86326366841</v>
+        <v>5836762.799593702</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>85431.86326366841</v>
+        <v>5836762.799593702</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1037766410.841062</v>
+        <v>40593388.43205005</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12899.40185717463</v>
+        <v>1233625.221770091</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23044.16129053448</v>
+        <v>1991593.251899711</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33195.38254732503</v>
+        <v>2749561.282029332</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43556.20468070662</v>
+        <v>3506769.614616097</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53917.02681408822</v>
+        <v>4263977.947202864</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64277.8489474698</v>
+        <v>5021186.27978963</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>74638.66789450822</v>
+        <v>5778394.612376393</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>84999.49002788981</v>
+        <v>6535602.944963156</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>95455.58202546938</v>
+        <v>7249636.722112088</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>105995.7259857998</v>
+        <v>7980396.839848446</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>116535.8699461303</v>
+        <v>8711156.957584804</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>127076.0139064607</v>
+        <v>9441917.07532116</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>137616.1482661893</v>
+        <v>10172677.19305753</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>148156.2922265196</v>
+        <v>10903437.31079389</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>158696.4361868502</v>
+        <v>11634197.42853026</v>
       </c>
     </row>
   </sheetData>
